--- a/output/backtest/backtest_results.xlsx
+++ b/output/backtest/backtest_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,60 +441,110 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>scenario_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>test_question</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>expected_category</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>actual_intent</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>all_intents</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>system_answer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>confidence</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>score</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>overall_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>category_match</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>keyword_coverage</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>evaluation</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>optimization_tips</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>knowledge_sources</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>source_ids</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>source_count</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>knowledge_links</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>batch_url</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>difficulty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
@@ -504,63 +554,104 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>租金如何計算？</t>
-        </is>
+      <c r="B2" t="n">
+        <v>12</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>帳務問題</t>
+          <t>新合約的資料申報提醒</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>合約問題</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>合約規定</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>租金的計算方式通常依據合約條款而有所不同。以下是一些基本的計算方式：
-1. **月繳租金**：如果租客選擇每月繳租，例如租金為 20800 元，則從租約開始的日期（例如 7/1）起，每個月都需繳交此金額。
-2. **首月租金**：首月的租金計算會根據實際使用的天數來計算。這意味著如果租約在月中開始，則會按照該月的天數來計算租金，以便更精確地反映租期內的實際使用時間。
-3. **負數租金**：</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="H2" t="b">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['合約規定']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>您好！針對新合約的資料申報，您需要注意以下幾點：
+1. **申報時限**：請於簽訂新合約後的30日內，進行資料申報。
+2. **申報方式**：請進入地政司線上系統進行包租代管案件的資料申報。
+如有其他問題或需要進一步的協助，隨時歡迎詢問！</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K2" t="b">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>{"category_match": true, "matched_intents": ["合約規定", "帳務查詢"], "keyword_coverage": 0.6666666666666666, "confidence": 0.8}</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>{"category_match": true, "matched_intents": ["合約規定"], "keyword_coverage": 0, "confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>✅ 測試通過，但仍有優化空間:
-✅ 多意圖匹配: 預期「帳務問題」在次要意圖中找到
-   主要意圖: 合約規定，所有意圖: ['合約規定', '帳務查詢']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>示例測試 - 租金計算</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2025-10-10T17:08:13.970855</t>
+✅ 多意圖匹配: 預期「合約問題」在次要意圖中找到
+   主要意圖: 合約規定，所有意圖: ['合約規定']</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>[495] 有關新合約的資料申報需要注意什麼？; [444] 新合約簽訂後需要做什麼？</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>495,444</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?search=495
+http://localhost:8080/#/knowledge?search=444</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?ids=495,444</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>從用戶問題 #19 創建，問題被問 4 次</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>2025-10-13T00:07:39.023489</t>
         </is>
       </c>
     </row>
@@ -568,61 +659,96 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>如何申請退租？</t>
-        </is>
+      <c r="B3" t="n">
+        <v>13</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>退租流程</t>
+          <t>請問停車位的租金怎麼算？有包含在租金裡面嗎？</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>退租流程</t>
+          <t>帳務問題</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>申請退租的流程如下：
-## 退租流程
-1. **提前通知**：請在退租日前30天以書面方式通知房東，這是非常重要的一步。
-2. **繳清費用**：確保所有的租金和水電費用都已經繳清，避免不必要的麻煩。
-3. **房屋檢查**：與房東約定時間，進行房屋檢查，確保房屋狀況良好。
-4. **押金退還**：在確認房屋狀況良好後，押金應在7個工作天內退還給您。
-## 注意事項
-- 提前30天通知房東是</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G3" t="n">
+          <t>合約規定</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['合約規定', '帳務查詢']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>很抱歉，關於「合約規定」我目前沒有相關資訊。建議您撥打客服專線 02-2345-6789 獲取協助。</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K3" t="b">
         <v>1</v>
       </c>
-      <c r="H3" t="b">
+      <c r="L3" t="b">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>{"category_match": true, "matched_intents": ["退租流程"], "keyword_coverage": 1.0, "confidence": 0.9}</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>{"category_match": true, "matched_intents": ["合約規定", "帳務查詢"], "keyword_coverage": 0, "confidence": 0.8}</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>✅ 測試通過，但仍有優化空間:
+✅ 多意圖匹配: 預期「帳務問題」在次要意圖中找到
+   主要意圖: 合約規定，所有意圖: ['合約規定', '帳務查詢']</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>無來源</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>示例測試 - 退租流程</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2025-10-10T17:08:30.720631</t>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>從用戶問題 #18 創建，問題被問 2 次</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>2025-10-13T00:07:43.600307</t>
         </is>
       </c>
     </row>
@@ -630,65 +756,107 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>房屋設備損壞如何報修？</t>
-        </is>
+      <c r="B4" t="n">
+        <v>14</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>物件問題</t>
+          <t>退租要怎麼辦理？</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>設備報修</t>
+          <t>退租流程</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>若您需要報修房屋設備損壞，請按照以下步驟進行：
-1. 訪問報修連結：[報修申請頁面](https://www.jgbsmart.com/estates/pick/repairCreate)。
-2. 填寫相關資訊，包括設備損壞的詳細情況。
-3. 提交報修申請，等待我們的管理人員進行後續處理。
-如果您有任何疑問或需要進一步的協助，隨時可以聯繫我們的客服團隊！希望您的問題能夠儘快解決。</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>退租流程</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['退租流程']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">辦理退租的流程如下：
+### 退租流程
+1. **提前通知**：
+   - 請於退租日前30天，以書面方式通知房東。
+2. **繳清費用**：
+   - 確認所有租金及水電費已繳清。
+3. **房屋檢查**：
+   - 與房東約定時間進行房屋檢查，確保房屋狀況良好。
+4. **押金退還**：
+   - 房屋檢查完成後，如果確認房屋狀況良好，押金將在7個工作天內退還。
+### 注意事項
+</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>0.9</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H4" t="b">
+      <c r="I4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K4" t="b">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>{"category_match": false, "matched_intents": [], "keyword_coverage": 1.0, "confidence": 0.9}</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>✅ 測試通過，但仍有優化空間:
-意圖分類不匹配: 預期「物件問題」但識別為「設備報修」
-   所有意圖: ['設備報修']
-💡 建議: 在意圖管理中編輯「設備報修」意圖，添加更多相關關鍵字</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>示例測試 - 設備報修</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2025-10-10T17:08:39.784116</t>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>{"category_match": true, "matched_intents": ["退租流程"], "keyword_coverage": 0, "confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>[2] 如何辦理退租？退租流程是什麼？; [5] 退租需要注意什麼; [6] 退租押金如何退還</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>2,5,6</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?search=2
+http://localhost:8080/#/knowledge?search=5
+http://localhost:8080/#/knowledge?search=6</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?ids=2,5,6</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>從用戶問題 #3 創建，問題被問 2 次</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>2025-10-13T00:08:02.291559</t>
         </is>
       </c>
     </row>
@@ -696,62 +864,90 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>如何聯繫管理師？</t>
-        </is>
+      <c r="B5" t="n">
+        <v>18</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>操作問題</t>
+          <t>我可以養寵物嗎</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>unclear</t>
+          <t>合約規定</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>抱歉，我不太理解您的問題。請您換個方式描述，或撥打客服專線 02-2345-6789 尋求協助。</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="H5" t="b">
+          <t>合約規定</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['合約規定']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>很抱歉，關於「合約規定」我目前沒有相關資訊。建議您撥打客服專線 02-2345-6789 獲取協助。</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>{"category_match": false, "matched_intents": [], "keyword_coverage": 0.3333333333333333, "confidence": 0.5}</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>意圖分類不匹配: 預期「操作問題」但識別為「unclear」
-   所有意圖: ['unclear']
-💡 建議: 在意圖管理中編輯「unclear」意圖，添加更多相關關鍵字
-答案缺少關鍵字: 管理師, 聯繫
-💡 建議: 在知識庫中補充相關內容，或優化知識的關鍵字</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>{"category_match": true, "matched_intents": ["合約規定"], "keyword_coverage": 0, "confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>無來源</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
         <is>
           <t>easy</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>示例測試 - 聯繫方式</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2025-10-10T17:08:44.390524</t>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>從用戶問題 #20 創建，問題被問 2 次</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>2025-10-13T00:08:06.179801</t>
         </is>
       </c>
     </row>
@@ -759,64 +955,189 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>忘記密碼怎麼辦？</t>
-        </is>
+      <c r="B6" t="n">
+        <v>20</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>帳號問題</t>
+          <t>可以養寵物嗎</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>unclear</t>
+          <t>寵物相關</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>如果您忘記了密碼，可以透過以下步驟來重設密碼：
-1. 點選登入頁面的「忘記密碼」選項。
-2. 輸入您註冊時使用的信箱。
-3. 按照系統發送到您信箱的指示，設定新密碼。
-完成後，您就可以使用新密碼登入系統了。如有其他問題，隨時歡迎詢問！</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H6" t="b">
+          <t>合約規定</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['合約規定']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>很抱歉，關於「合約規定」我目前沒有相關資訊。建議您撥打客服專線 02-2345-6789 獲取協助。</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>{"category_match": false, "matched_intents": [], "keyword_coverage": 1.0, "confidence": 0.5}</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>意圖分類不匹配: 預期「帳號問題」但識別為「unclear」
-   所有意圖: ['unclear']
-💡 建議: 在意圖管理中編輯「unclear」意圖，添加更多相關關鍵字</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>示例測試 - 密碼重設</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2025-10-10T17:08:50.288504</t>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>{"category_match": false, "matched_intents": [], "keyword_coverage": 0, "confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>意圖分類不匹配: 預期「寵物相關」但識別為「合約規定」
+   所有意圖: ['合約規定']
+💡 建議: 在意圖管理中編輯「合約規定」意圖，添加更多相關關鍵字</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>無來源</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>從用戶問題 #26 創建，問題被問 3 次</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>2025-10-13T00:08:09.731145</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>81</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>如何使用系統報修功能？</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>設備報修</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>設備使用</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['設備使用']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>很抱歉，關於「設備使用」我目前沒有相關資訊。建議您撥打客服專線 02-2345-6789 獲取協助。</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>{"category_match": true, "matched_intents": ["設備使用"], "keyword_coverage": 0, "confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>✅ 測試通過，但仍有優化空間:
+✅ 多意圖匹配: 預期「設備報修」在次要意圖中找到
+   主要意圖: 設備使用，所有意圖: ['設備使用']</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>無來源</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>2025-10-13T00:08:13.901576</t>
         </is>
       </c>
     </row>

--- a/output/backtest/backtest_results.xlsx
+++ b/output/backtest/backtest_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,50 +549,83 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>quality_eval</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>relevance</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>completeness</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>intent_match</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>quality_overall</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>quality_reasoning</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新合約的資料申報提醒</t>
+          <t>鄰居常常打擾我</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>合約問題</t>
+          <t>unclear</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>合約規定</t>
+          <t>unclear</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['合約規定']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>您好！針對新合約的資料申報，您需要注意以下幾點：
-1. **申報時限**：請於簽訂新合約後的30日內，進行資料申報。
-2. **申報方式**：請進入地政司線上系統進行包租代管案件的資料申報。
-如有其他問題或需要進一步的協助，隨時歡迎詢問！</t>
+          <t>如果鄰居常常打擾您，建議您可以先試著與鄰居進行直接溝通，禮貌地表達您的困擾，並尋求可能的解決方式。如果問題仍然無法解決，您可以聯繫甲山林包租代管股份有限公司，讓我們協助處理這個問題。根據租賃契約或社區規範，我們可能能夠提供相關的支持，以幫助您維護居住權益。
+如果情況持續惡化或對您造成嚴重困擾，考慮向當地的房屋管理機構或法律單位尋求進一步的協助。希望這些建議能幫助您解決問題！</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -605,53 +638,76 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{"category_match": true, "matched_intents": ["合約規定"], "keyword_coverage": 0, "confidence": 0.9}</t>
+          <t>{"category_match": true, "matched_intents": ["unclear"], "keyword_coverage": 0, "confidence": 0.5}</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>✅ 測試通過，但仍有優化空間:
-✅ 多意圖匹配: 預期「合約問題」在次要意圖中找到
-   主要意圖: 合約規定，所有意圖: ['合約規定']</t>
+          <t>整體得分過低 (0.30/1.0)
+💡 建議: 檢查知識庫是否有相關內容，或優化現有知識的描述</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[495] 有關新合約的資料申報需要注意什麼？; [444] 新合約簽訂後需要做什麼？</t>
+          <t>[504] 鄰居常常打擾我</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>495,444</t>
+          <t>504</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge?search=495
-http://localhost:8080/#/knowledge?search=444</t>
+          <t>http://localhost:8080/#/knowledge?search=504</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge?ids=495,444</t>
+          <t>http://localhost:8080/#/knowledge?ids=504</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>從用戶問題 #19 創建，問題被問 4 次</t>
+          <t>用戶問題意圖不明確（Vendor 2），系統無法識別並提供答案</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2025-10-13T00:07:39.023489</t>
+          <t>2025-10-18T11:19:21.535578</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>{"relevance": 5, "completeness": 5, "accuracy": 5, "intent_match": 4, "overall": 5, "reasoning": "答案直接針對鄰居打擾的問題提供了具體的建議，包括溝通和尋求外部協助，涵蓋了問題的各個方面，且內容準確可靠。雖然意圖不明，但提供的建議仍然是合理的，因此評分為4。整體而言，答案質量高，符合問題需求。"}</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>答案直接針對鄰居打擾的問題提供了具體的建議，包括溝通和尋求外部協助，涵蓋了問題的各個方面，且內容準確可靠。雖然意圖不明，但提供的建議仍然是合理的，因此評分為4。整體而言，答案質量高，符合問題需求。</t>
         </is>
       </c>
     </row>
@@ -660,31 +716,36 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>請問停車位的租金怎麼算？有包含在租金裡面嗎？</t>
+          <t>我沒有wifi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>帳務問題</t>
+          <t>設備報修</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>合約規定</t>
+          <t>設備使用</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['合約規定', '帳務查詢']</t>
+          <t>['設備使用']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>很抱歉，關於「合約規定」我目前沒有相關資訊。建議您撥打客服專線 02-2345-6789 獲取協助。</t>
+          <t>如果您沒有 WiFi，建議您可以先檢查以下幾個步驟：
+1. **檢查路由器**：確保路由器已經開啟，並且燈號正常。
+2. **重新啟動路由器**：關閉路由器電源，等待約 10 秒後再重新開啟。
+3. **檢查連接**：確認您的設備是否正確連接到 WiFi 網路。
+如果以上步驟無法解決問題，建議您透過我們的平台提交維護請求，詳細描述問題，並選擇優先級，我們將會協助安排專業技術人員進行檢查。
+如</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -694,7 +755,7 @@
         <v>0.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -707,33 +768,39 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{"category_match": true, "matched_intents": ["合約規定", "帳務查詢"], "keyword_coverage": 0, "confidence": 0.8}</t>
+          <t>{"category_match": true, "matched_intents": ["設備使用"], "keyword_coverage": 0, "confidence": 0.8}</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>✅ 測試通過，但仍有優化空間:
-✅ 多意圖匹配: 預期「帳務問題」在次要意圖中找到
-   主要意圖: 合約規定，所有意圖: ['合約規定', '帳務查詢']</t>
+✅ 多意圖匹配: 預期「設備報修」在次要意圖中找到
+   主要意圖: 設備使用，所有意圖: ['設備使用']</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>無來源</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr"/>
+          <t>[30] 維護請求流程：; [31] 水管漏水：; [32] 空調故障：</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>30,31,32</t>
+        </is>
+      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>無</t>
+          <t>http://localhost:8080/#/knowledge?search=30
+http://localhost:8080/#/knowledge?search=31
+http://localhost:8080/#/knowledge?search=32</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge</t>
+          <t>http://localhost:8080/#/knowledge?ids=30,31,32</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -743,12 +810,37 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>從用戶問題 #18 創建，問題被問 2 次</t>
+          <t>用戶真實問題（Vendor 1），系統無法提供答案</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2025-10-13T00:07:43.600307</t>
+          <t>2025-10-18T11:19:31.356286</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>{"relevance": 4, "completeness": 4, "accuracy": 5, "intent_match": 4, "overall": 4, "reasoning": "答案提供了檢查 WiFi 連接的步驟，雖然與設備報修的意圖相關，但沒有直接提到報修的具體流程，這使得意圖匹配略有不足。整體上，答案內容準確且涵蓋了大部分問題，但可以更明確地引導用戶如何提交報修請求。"}</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>答案提供了檢查 WiFi 連接的步驟，雖然與設備報修的意圖相關，但沒有直接提到報修的具體流程，這使得意圖匹配略有不足。整體上，答案內容準確且涵蓋了大部分問題，但可以更明確地引導用戶如何提交報修請求。</t>
         </is>
       </c>
     </row>
@@ -757,42 +849,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>退租要怎麼辦理？</t>
+          <t>新合約的資料申報提醒</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>退租流程</t>
+          <t>合約規定</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>退租流程</t>
+          <t>合約規定</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['退租流程']</t>
+          <t>['合約規定']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">辦理退租的流程如下：
-### 退租流程
-1. **提前通知**：
-   - 請於退租日前30天，以書面方式通知房東。
-2. **繳清費用**：
-   - 確認所有租金及水電費已繳清。
-3. **房屋檢查**：
-   - 與房東約定時間進行房屋檢查，確保房屋狀況良好。
-4. **押金退還**：
-   - 房屋檢查完成後，如果確認房屋狀況良好，押金將在7個工作天內退還。
-### 注意事項
-</t>
+          <t>您好！關於新合約的資料申報提醒，這部分目前的資料庫中並未提供具體的申報流程或提醒細節。建議您在簽署合約後，主動聯繫我們的客服團隊，以獲取最新的合約細節和任何需要注意的申報事項。我們會很樂意協助您確保所有資料準確無誤。謝謝您的理解！如果有其他問題，請隨時告訴我們。</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -802,7 +883,7 @@
         <v>0.6</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -815,18 +896,18 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{"category_match": true, "matched_intents": ["退租流程"], "keyword_coverage": 0, "confidence": 0.9}</t>
+          <t>{"category_match": true, "matched_intents": ["合約規定"], "keyword_coverage": 0, "confidence": 0.9}</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[2] 如何辦理退租？退租流程是什麼？; [5] 退租需要注意什麼; [6] 退租押金如何退還</t>
+          <t>[11] 批准與簽約：; [15] 租期：; [18] 提前終止：</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2,5,6</t>
+          <t>11,15,18</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -834,29 +915,54 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge?search=2
-http://localhost:8080/#/knowledge?search=5
-http://localhost:8080/#/knowledge?search=6</t>
+          <t>http://localhost:8080/#/knowledge?search=11
+http://localhost:8080/#/knowledge?search=15
+http://localhost:8080/#/knowledge?search=18</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge?ids=2,5,6</t>
+          <t>http://localhost:8080/#/knowledge?ids=11,15,18</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>從用戶問題 #3 創建，問題被問 2 次</t>
+          <t>從用戶問題 #19 創建，問題被問 4 次</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2025-10-13T00:08:02.291559</t>
+          <t>2025-10-18T11:19:39.858347</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>{"relevance": 4, "completeness": 3, "accuracy": 4, "intent_match": 4, "overall": 4, "reasoning": "答案與問題相關，提供了聯繫客服的建議，但未能具體回答資料申報的流程或細節，因此在完整性上有所欠缺。內容準確且符合預期意圖，整體表現良好。"}</t>
+        </is>
+      </c>
+      <c r="Y4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>答案與問題相關，提供了聯繫客服的建議，但未能具體回答資料申報的流程或細節，因此在完整性上有所欠缺。內容準確且符合預期意圖，整體表現良好。</t>
         </is>
       </c>
     </row>
@@ -865,41 +971,42 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>我可以養寵物嗎</t>
+          <t>請問停車位的租金怎麼算？有包含在租金裡面嗎？</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>帳務查詢</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>合約規定</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>合約規定</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['合約規定']</t>
+          <t>['合約規定', '帳務查詢']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>很抱歉，關於「合約規定」我目前沒有相關資訊。建議您撥打客服專線 02-2345-6789 獲取協助。</t>
+          <t>停車位的租金計算方式可能因合約而異，通常不會自動包含在租金內。建議您在簽約之前，與房東或甲山林包租代管股份有限公司確認停車位的具體租金及其是否包含在主租金中。
+如需進一步協助，請您隨時聯繫我們，我們將樂意為您提供幫助！</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I5" t="n">
         <v>0.6</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -912,42 +1019,79 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{"category_match": true, "matched_intents": ["合約規定"], "keyword_coverage": 0, "confidence": 0.9}</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
+          <t>{"category_match": true, "matched_intents": ["合約規定", "帳務查詢"], "keyword_coverage": 0, "confidence": 0.8}</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>✅ 測試通過，但仍有優化空間:
+✅ 多意圖匹配: 預期「帳務查詢」在次要意圖中找到
+   主要意圖: 合約規定，所有意圖: ['合約規定', '帳務查詢']</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>無來源</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr"/>
+          <t>[11] 批准與簽約：; [15] 租期：; [18] 提前終止：</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>11,15,18</t>
+        </is>
+      </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>無</t>
+          <t>http://localhost:8080/#/knowledge?search=11
+http://localhost:8080/#/knowledge?search=15
+http://localhost:8080/#/knowledge?search=18</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge</t>
+          <t>http://localhost:8080/#/knowledge?ids=11,15,18</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>從用戶問題 #20 創建，問題被問 2 次</t>
+          <t>從用戶問題 #18 創建，問題被問 2 次</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2025-10-13T00:08:06.179801</t>
+          <t>2025-10-18T11:19:48.650956</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>{"relevance": 5, "completeness": 4, "accuracy": 5, "intent_match": 5, "overall": 4, "reasoning": "答案直接回應了停車位租金的計算方式及其是否包含在主租金中的問題，並建議進一步確認，符合預期意圖。雖然答案涵蓋了主要內容，但對於具體的計算方式可以提供更多細節，因此在完整性上稍有不足。"}</t>
+        </is>
+      </c>
+      <c r="Y5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>答案直接回應了停車位租金的計算方式及其是否包含在主租金中的問題，並建議進一步確認，符合預期意圖。雖然答案涵蓋了主要內容，但對於具體的計算方式可以提供更多細節，因此在完整性上稍有不足。</t>
         </is>
       </c>
     </row>
@@ -956,95 +1100,122 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>可以養寵物嗎</t>
+          <t>退租要怎麼辦理？</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>寵物相關</t>
+          <t>退租流程</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>合約規定</t>
+          <t>退租流程</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['合約規定']</t>
+          <t>['退租流程']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>很抱歉，關於「合約規定」我目前沒有相關資訊。建議您撥打客服專線 02-2345-6789 獲取協助。</t>
+          <t>退租的流程如下：
+1. **提前通知**：請您提前與我們聯繫，告知退租的意向，這樣我們可以協助您辦理後續事宜。
+2. **房屋檢查**：在您退租的時候，我們會進行房屋檢查，以確認房屋的狀況是否良好。
+3. **押金退還**：若房屋狀況符合要求，我們會在租約結束後的30天內，將押金退還至您指定的帳戶。
+如有任何疑問或需要協助的地方，歡迎隨時與我們聯繫！</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>0.9</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3</v>
+        <v>0.72</v>
       </c>
       <c r="K6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{"category_match": false, "matched_intents": [], "keyword_coverage": 0, "confidence": 0.9}</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>意圖分類不匹配: 預期「寵物相關」但識別為「合約規定」
-   所有意圖: ['合約規定']
-💡 建議: 在意圖管理中編輯「合約規定」意圖，添加更多相關關鍵字</t>
-        </is>
-      </c>
+          <t>{"category_match": true, "matched_intents": ["退租流程"], "keyword_coverage": 0, "confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>無來源</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr"/>
+          <t>[17] 押金：</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>無</t>
+          <t>http://localhost:8080/#/knowledge?search=17</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge</t>
+          <t>http://localhost:8080/#/knowledge?ids=17</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>從用戶問題 #26 創建，問題被問 3 次</t>
+          <t>從用戶問題 #3 創建，問題被問 2 次</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2025-10-13T00:08:09.731145</t>
+          <t>2025-10-18T11:19:55.432402</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>{"relevance": 5, "completeness": 4, "accuracy": 5, "intent_match": 5, "overall": 4, "reasoning": "答案直接回答了退租的流程，涵蓋了提前通知、房屋檢查和押金退還等重要步驟，符合預期意圖。但可以增加一些具體的注意事項或文件要求，以提升完整性。"}</t>
+        </is>
+      </c>
+      <c r="Y6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>答案直接回答了退租的流程，涵蓋了提前通知、房屋檢查和押金退還等重要步驟，符合預期意圖。但可以增加一些具體的注意事項或文件要求，以提升完整性。</t>
         </is>
       </c>
     </row>
@@ -1053,91 +1224,366 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>如何使用系統報修功能？</t>
+          <t>我可以養寵物嗎</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>設備報修</t>
+          <t>合約規定</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>設備使用</t>
+          <t>寵物飼養</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['設備使用']</t>
+          <t>['寵物飼養']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>很抱歉，關於「設備使用」我目前沒有相關資訊。建議您撥打客服專線 02-2345-6789 獲取協助。</t>
+          <t>很抱歉，關於「寵物飼養」我目前沒有相關資訊。建議您撥打客服專線 02-2345-6789 獲取協助。</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>0.9</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>{"category_match": false, "matched_intents": [], "keyword_coverage": 0, "confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>意圖分類不匹配: 預期「合約規定」但識別為「寵物飼養」
+   所有意圖: ['寵物飼養']
+💡 建議: 在意圖管理中編輯「寵物飼養」意圖，添加更多相關關鍵字</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>無來源</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>從用戶問題 #20 創建，問題被問 2 次</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>2025-10-18T11:20:01.182931</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>{"relevance": 3, "completeness": 2, "accuracy": 3, "intent_match": 2, "overall": 2, "reasoning": "答案未能直接回答是否可以養寵物，且缺乏對合約規定的具體資訊，僅提供了聯絡客服的建議，未能滿足使用者的需求。"}</t>
+        </is>
+      </c>
+      <c r="Y7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>答案未能直接回答是否可以養寵物，且缺乏對合約規定的具體資訊，僅提供了聯絡客服的建議，未能滿足使用者的需求。</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>可以養寵物嗎</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>寵物飼養</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>寵物飼養</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['寵物飼養']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>很抱歉，關於「寵物飼養」我目前沒有相關資訊。建議您撥打客服專線 02-2345-6789 獲取協助。</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>{"category_match": true, "matched_intents": ["寵物飼養"], "keyword_coverage": 0, "confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>無來源</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>從用戶問題 #26 創建，問題被問 3 次</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>2025-10-18T11:20:08.017161</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>{"relevance": 2, "completeness": 2, "accuracy": 3, "intent_match": 2, "overall": 2, "reasoning": "答案並未直接回答是否可以養寵物，且缺乏具體資訊，僅提供了客服聯絡方式，未能滿足使用者的需求。雖然提供了客服電話，但這並不符合使用者的預期意圖，整體評分偏低。"}</t>
+        </is>
+      </c>
+      <c r="Y8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>答案並未直接回答是否可以養寵物，且缺乏具體資訊，僅提供了客服聯絡方式，未能滿足使用者的需求。雖然提供了客服電話，但這並不符合使用者的預期意圖，整體評分偏低。</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>81</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>如何使用系統報修功能？</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>設備報修</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>設備使用</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['設備使用']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>要使用系統報修功能，請按照以下步驟操作：
+1. **登錄平台**：首先，請您登錄到我們的維護請求平台。
+2. **提交維護請求**：
+   - 填寫房屋問題的描述，清楚地說明您遇到的問題。
+   - 選擇該問題的優先級，以便我們能夠更有效地處理。
+3. **系統分配維修人員**：提交請求後，系統會自動將您的維護請求分配給相應的維修人員。
+4. **通知預計維修時間**：您會透過系統收到預計的維修</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>{"category_match": true, "matched_intents": ["設備使用"], "keyword_coverage": 0, "confidence": 0.9}</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>✅ 測試通過，但仍有優化空間:
 ✅ 多意圖匹配: 預期「設備報修」在次要意圖中找到
    主要意圖: 設備使用，所有意圖: ['設備使用']</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>無來源</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>無</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>http://localhost:8080/#/knowledge</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>[30] 維護請求流程：; [31] 水管漏水：; [32] 空調故障：</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>30,31,32</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?search=30
+http://localhost:8080/#/knowledge?search=31
+http://localhost:8080/#/knowledge?search=32</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?ids=30,31,32</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>2025-10-13T00:08:13.901576</t>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>2025-10-18T11:20:20.195617</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>{"relevance": 5, "completeness": 5, "accuracy": 5, "intent_match": 5, "overall": 5, "reasoning": "答案清楚地回答了如何使用系統報修功能，涵蓋了所有必要步驟，且內容準確可靠，完全符合設備報修的預期意圖。"}</t>
+        </is>
+      </c>
+      <c r="Y9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>答案清楚地回答了如何使用系統報修功能，涵蓋了所有必要步驟，且內容準確可靠，完全符合設備報修的預期意圖。</t>
         </is>
       </c>
     </row>

--- a/output/backtest/backtest_results.xlsx
+++ b/output/backtest/backtest_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,135 +451,120 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>expected_category</t>
+          <t>actual_intent</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>actual_intent</t>
+          <t>all_intents</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>all_intents</t>
+          <t>system_answer</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>system_answer</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>score</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>score</t>
+          <t>overall_score</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>overall_score</t>
+          <t>passed</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>passed</t>
+          <t>evaluation</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>category_match</t>
+          <t>optimization_tips</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>keyword_coverage</t>
+          <t>knowledge_sources</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>evaluation</t>
+          <t>source_ids</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>optimization_tips</t>
+          <t>source_count</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>knowledge_sources</t>
+          <t>knowledge_links</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>source_ids</t>
+          <t>batch_url</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>source_count</t>
+          <t>difficulty</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>knowledge_links</t>
+          <t>notes</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>batch_url</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>difficulty</t>
+          <t>quality_eval</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>notes</t>
+          <t>relevance</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>completeness</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>quality_eval</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>relevance</t>
+          <t>intent_match</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>completeness</t>
+          <t>quality_overall</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>intent_match</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>quality_overall</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>quality_reasoning</t>
         </is>
@@ -590,105 +575,103 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鄰居常常打擾我</t>
+          <t>我沒有wifi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>unclear</t>
+          <t>設備報修</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>unclear</t>
+          <t>['設備報修']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>如果鄰居常常打擾您，建議您可以先試著與鄰居進行直接溝通，禮貌地表達您的困擾，並尋求可能的解決方式。如果問題仍然無法解決，您可以聯繫甲山林包租代管股份有限公司，讓我們協助處理這個問題。根據租賃契約或社區規範，我們可能能夠提供相關的支持，以幫助您維護居住權益。
-如果情況持續惡化或對您造成嚴重困擾，考慮向當地的房屋管理機構或法律單位尋求進一步的協助。希望這些建議能幫助您解決問題！</t>
-        </is>
+          <t>您好，了解到您的WiFi無法使用。為了解決這個問題，我們將提供以下操作步驟：
+1. 請確認路由器的電源線是否插在插座上，並確保插座運作正常。
+2. 檢查路由器的電源指示燈，確認路由器是否有正常供電。
+3. 如果以上步驟檢查後問題仍未解決，請聯繫我們，我們將安排專業人員前往處理，以確保您能夠盡快恢復WiFi連線服務。
+我們會盡快為您處理，讓您能夠順利使用WiFi，請您放心。如果還有其他問題，歡迎</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[246] 空調故障：; [247] 空調無法啟動：</t>
+        </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{"category_match": true, "matched_intents": ["unclear"], "keyword_coverage": 0, "confidence": 0.5}</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>整體得分過低 (0.30/1.0)
-💡 建議: 檢查知識庫是否有相關內容，或優化現有知識的描述</t>
-        </is>
+          <t>246,247</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[504] 鄰居常常打擾我</t>
+          <t>http://localhost:8080/#/knowledge?search=246
+http://localhost:8080/#/knowledge?search=247</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>504</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>1</v>
+          <t>http://localhost:8080/#/knowledge?ids=246,247</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge?search=504</t>
+          <t>用戶真實問題（Vendor 1），系統無法提供答案
+【遗留数据】预期分类: 設備報修</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge?ids=504</t>
+          <t>2025-10-25T20:03:46.476958</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>hard</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>用戶問題意圖不明確（Vendor 2），系統無法識別並提供答案</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>2025-10-18T11:19:21.535578</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>{"relevance": 5, "completeness": 5, "accuracy": 5, "intent_match": 4, "overall": 5, "reasoning": "答案直接針對鄰居打擾的問題提供了具體的建議，包括溝通和尋求外部協助，涵蓋了問題的各個方面，且內容準確可靠。雖然意圖不明，但提供的建議仍然是合理的，因此評分為4。整體而言，答案質量高，符合問題需求。"}</t>
-        </is>
+          <t>{"relevance": 5, "completeness": 5, "accuracy": 5, "intent_match": 5, "overall": 5, "reasoning": "答案直接針對用戶的WiFi問題提供了具體的檢查步驟，並且在問題未解決的情況下提供了聯繫專業人員的建議，充分理解了用戶的需求。所有提供的資訊都是準確且實用的，滿足了問題的所有要求。"}</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5</v>
       </c>
       <c r="Y2" t="n">
         <v>5</v>
@@ -696,18 +679,9 @@
       <c r="Z2" t="n">
         <v>5</v>
       </c>
-      <c r="AA2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>答案直接針對鄰居打擾的問題提供了具體的建議，包括溝通和尋求外部協助，涵蓋了問題的各個方面，且內容準確可靠。雖然意圖不明，但提供的建議仍然是合理的，因此評分為4。整體而言，答案質量高，符合問題需求。</t>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>答案直接針對用戶的WiFi問題提供了具體的檢查步驟，並且在問題未解決的情況下提供了聯繫專業人員的建議，充分理解了用戶的需求。所有提供的資訊都是準確且實用的，滿足了問題的所有要求。</t>
         </is>
       </c>
     </row>
@@ -716,131 +690,108 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>我沒有wifi</t>
+          <t>鄰居常常打擾我</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>設備報修</t>
+          <t>房東進入房間的權利</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>設備使用</t>
+          <t>['房東進入房間的權利']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['設備使用']</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>如果您沒有 WiFi，建議您可以先檢查以下幾個步驟：
-1. **檢查路由器**：確保路由器已經開啟，並且燈號正常。
-2. **重新啟動路由器**：關閉路由器電源，等待約 10 秒後再重新開啟。
-3. **檢查連接**：確認您的設備是否正確連接到 WiFi 網路。
-如果以上步驟無法解決問題，建議您透過我們的平台提交維護請求，詳細描述問題，並選擇優先級，我們將會協助安排專業技術人員進行檢查。
-如</t>
-        </is>
+          <t>若鄰居常常打擾您，我們建議您首先嘗試直接與鄰居溝通，禮貌地表達您的困擾，我們會協助您處理並尋求解決問題的方式。如果無法解決，您可以向房東或租屋管理單位反映情況，讓我們處理並協助處理。根據租賃契約或社區規範，可能有相關規定可支持您維護居住權益。若情況持續惡化或對您造成嚴重困擾，我們建議考慮向當地房屋管理機構或法律單位尋求協助。</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.8}</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[504] 鄰居常常打擾我</t>
+        </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{"category_match": true, "matched_intents": ["設備使用"], "keyword_coverage": 0, "confidence": 0.8}</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>✅ 測試通過，但仍有優化空間:
-✅ 多意圖匹配: 預期「設備報修」在次要意圖中找到
-   主要意圖: 設備使用，所有意圖: ['設備使用']</t>
-        </is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[30] 維護請求流程：; [31] 水管漏水：; [32] 空調故障：</t>
+          <t>http://localhost:8080/#/knowledge?search=504</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>30,31,32</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>3</v>
+          <t>http://localhost:8080/#/knowledge?ids=504</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge?search=30
-http://localhost:8080/#/knowledge?search=31
-http://localhost:8080/#/knowledge?search=32</t>
+          <t>用戶問題意圖不明確（Vendor 2），系統無法識別並提供答案
+【遗留数据】预期分类: unclear</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge?ids=30,31,32</t>
+          <t>2025-10-25T20:03:55.905354</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>用戶真實問題（Vendor 1），系統無法提供答案</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>2025-10-18T11:19:31.356286</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>{"relevance": 4, "completeness": 4, "accuracy": 5, "intent_match": 4, "overall": 4, "reasoning": "答案提供了檢查 WiFi 連接的步驟，雖然與設備報修的意圖相關，但沒有直接提到報修的具體流程，這使得意圖匹配略有不足。整體上，答案內容準確且涵蓋了大部分問題，但可以更明確地引導用戶如何提交報修請求。"}</t>
-        </is>
+          <t>{"relevance": 5, "completeness": 5, "accuracy": 5, "intent_match": 5, "overall": 5, "reasoning": "答案直接針對鄰居打擾的問題提供了具體的解決建議，涵蓋了溝通、報告和法律途徑等多種方式，且內容準確可靠，完全符合問題的意圖。"}</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>答案提供了檢查 WiFi 連接的步驟，雖然與設備報修的意圖相關，但沒有直接提到報修的具體流程，這使得意圖匹配略有不足。整體上，答案內容準確且涵蓋了大部分問題，但可以更明確地引導用戶如何提交報修請求。</t>
+        <v>5</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>答案直接針對鄰居打擾的問題提供了具體的解決建議，涵蓋了溝通、報告和法律途徑等多種方式，且內容準確可靠，完全符合問題的意圖。</t>
         </is>
       </c>
     </row>
@@ -849,120 +800,108 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>新合約的資料申報提醒</t>
+          <t>如何重设密码？</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>合約規定</t>
+          <t>帳號問題</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>合約規定</t>
+          <t>['帳號問題']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['合約規定']</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>您好！關於新合約的資料申報提醒，這部分目前的資料庫中並未提供具體的申報流程或提醒細節。建議您在簽署合約後，主動聯繫我們的客服團隊，以獲取最新的合約細節和任何需要注意的申報事項。我們會很樂意協助您確保所有資料準確無誤。謝謝您的理解！如果有其他問題，請隨時告訴我們。</t>
-        </is>
+          <t>您可以透過點選忘記密碼的選項來重設密碼，並使用提供的信箱和新密碼登入系統。
+📚 此資訊來自知識庫：如何重設帳號密碼？甲山林包租代管股份有限公司會立即為您處理。</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[223] 如何重設帳號密碼？</t>
+        </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{"category_match": true, "matched_intents": ["合約規定"], "keyword_coverage": 0, "confidence": 0.9}</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[11] 批准與簽約：; [15] 租期：; [18] 提前終止：</t>
+          <t>http://localhost:8080/#/knowledge?search=223</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>11,15,18</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>3</v>
+          <t>http://localhost:8080/#/knowledge?ids=223</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge?search=11
-http://localhost:8080/#/knowledge?search=15
-http://localhost:8080/#/knowledge?search=18</t>
+          <t>更新为高优先级</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge?ids=11,15,18</t>
+          <t>2025-10-25T20:04:04.586652</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>從用戶問題 #19 創建，問題被問 4 次</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>2025-10-18T11:19:39.858347</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>{"relevance": 4, "completeness": 3, "accuracy": 4, "intent_match": 4, "overall": 4, "reasoning": "答案與問題相關，提供了聯繫客服的建議，但未能具體回答資料申報的流程或細節，因此在完整性上有所欠缺。內容準確且符合預期意圖，整體表現良好。"}</t>
-        </is>
+          <t>{"relevance": 5, "completeness": 4, "accuracy": 5, "intent_match": 5, "overall": 4, "reasoning": "答案直接回答了如何重设密码的問題，提供了具體的步驟（點選忘記密碼的選項）。然而，答案中提到的'提供的信箱和新密碼登入系統'可能會讓人感到困惑，因為重設密碼的過程通常不涉及直接登入，而是需要通過電子郵件確認。因此，完整性略有不足。準確性和意圖理解方面都表現良好。"}</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5</v>
       </c>
       <c r="Y4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>答案與問題相關，提供了聯繫客服的建議，但未能具體回答資料申報的流程或細節，因此在完整性上有所欠缺。內容準確且符合預期意圖，整體表現良好。</t>
+        <v>4</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>答案直接回答了如何重设密码的問題，提供了具體的步驟（點選忘記密碼的選項）。然而，答案中提到的'提供的信箱和新密碼登入系統'可能會讓人感到困惑，因為重設密碼的過程通常不涉及直接登入，而是需要通過電子郵件確認。因此，完整性略有不足。準確性和意圖理解方面都表現良好。</t>
         </is>
       </c>
     </row>
@@ -971,127 +910,110 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>請問停車位的租金怎麼算？有包含在租金裡面嗎？</t>
+          <t>新合約的資料申報提醒</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>帳務查詢</t>
+          <t>合約規定</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>合約規定</t>
+          <t>['合約規定']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['合約規定', '帳務查詢']</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>停車位的租金計算方式可能因合約而異，通常不會自動包含在租金內。建議您在簽約之前，與房東或甲山林包租代管股份有限公司確認停車位的具體租金及其是否包含在主租金中。
-如需進一步協助，請您隨時聯繫我們，我們將樂意為您提供幫助！</t>
-        </is>
+          <t>當您有新合約的資料需要申報時，我們公司將立即安排您進行租約簽署，同時支付首期租金及押金。我們會根據您的需求提供彈性的租賃方案，讓您更方便地選擇合適的租期。若有任何疑問或需要協助，請隨時與我們聯絡，我們將竭誠為您服務。</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.8</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[225] 批准與簽約：; [229] 租期：; [232] 提前終止：</t>
+        </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{"category_match": true, "matched_intents": ["合約規定", "帳務查詢"], "keyword_coverage": 0, "confidence": 0.8}</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>✅ 測試通過，但仍有優化空間:
-✅ 多意圖匹配: 預期「帳務查詢」在次要意圖中找到
-   主要意圖: 合約規定，所有意圖: ['合約規定', '帳務查詢']</t>
-        </is>
+          <t>225,229,232,233</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[11] 批准與簽約：; [15] 租期：; [18] 提前終止：</t>
+          <t>http://localhost:8080/#/knowledge?search=225
+http://localhost:8080/#/knowledge?search=229
+http://localhost:8080/#/knowledge?search=232</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>11,15,18</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
+          <t>http://localhost:8080/#/knowledge?ids=225,229,232,233</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>從用戶問題 #19 創建，問題被問 4 次
+【遗留数据】预期分类: 合約規定</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2025-10-25T20:04:14.000961</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>{"relevance": 4, "completeness": 3, "accuracy": 4, "intent_match": 4, "overall": 4, "reasoning": "答案與問題相關，提到新合約的資料申報和租約簽署，但未明確說明資料申報的具體步驟或要求，導致完整性稍有欠缺。內容準確且理解了問題的意圖，但可以更具體地回應資料申報的具體細節。"}</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>4</v>
+      </c>
+      <c r="W5" t="n">
         <v>3</v>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>http://localhost:8080/#/knowledge?search=11
-http://localhost:8080/#/knowledge?search=15
-http://localhost:8080/#/knowledge?search=18</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>http://localhost:8080/#/knowledge?ids=11,15,18</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>從用戶問題 #18 創建，問題被問 2 次</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>2025-10-18T11:19:48.650956</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>{"relevance": 5, "completeness": 4, "accuracy": 5, "intent_match": 5, "overall": 4, "reasoning": "答案直接回應了停車位租金的計算方式及其是否包含在主租金中的問題，並建議進一步確認，符合預期意圖。雖然答案涵蓋了主要內容，但對於具體的計算方式可以提供更多細節，因此在完整性上稍有不足。"}</t>
-        </is>
+      <c r="X5" t="n">
+        <v>4</v>
       </c>
       <c r="Y5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z5" t="n">
         <v>4</v>
       </c>
-      <c r="AA5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>答案直接回應了停車位租金的計算方式及其是否包含在主租金中的問題，並建議進一步確認，符合預期意圖。雖然答案涵蓋了主要內容，但對於具體的計算方式可以提供更多細節，因此在完整性上稍有不足。</t>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>答案與問題相關，提到新合約的資料申報和租約簽署，但未明確說明資料申報的具體步驟或要求，導致完整性稍有欠缺。內容準確且理解了問題的意圖，但可以更具體地回應資料申報的具體細節。</t>
         </is>
       </c>
     </row>
@@ -1100,122 +1022,120 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>退租要怎麼辦理？</t>
+          <t>請問停車位的租金怎麼算？有包含在租金裡面嗎？</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>退租流程</t>
+          <t>合約規定</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>退租流程</t>
+          <t>['合約規定']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['退租流程']</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>退租的流程如下：
-1. **提前通知**：請您提前與我們聯繫，告知退租的意向，這樣我們可以協助您辦理後續事宜。
-2. **房屋檢查**：在您退租的時候，我們會進行房屋檢查，以確認房屋的狀況是否良好。
-3. **押金退還**：若房屋狀況符合要求，我們會在租約結束後的30天內，將押金退還至您指定的帳戶。
-如有任何疑問或需要協助的地方，歡迎隨時與我們聯繫！</t>
-        </is>
+          <t>## 停車位租金計算流程：
+1. **選擇停車位**：
+   - 選定欲租用的停車位。
+2. **簽署租約**：
+   - 簽署租約，支付首期租金及押金。
+   - 我們將安排相關手續，確保流程順利進行。
+3. **確定租期**：
+   - 標準租期通常為12個月，但可協商月租。
+   - 公司提供彈性租賃方案，以符合您的需求。
+4. **停車位租金計算**：
+   - 停車位租金可能包含</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[225] 批准與簽約：; [229] 租期：; [232] 提前終止：</t>
+        </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{"category_match": true, "matched_intents": ["退租流程"], "keyword_coverage": 0, "confidence": 0.9}</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
+          <t>225,229,232,233</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[17] 押金：</t>
+          <t>http://localhost:8080/#/knowledge?search=225
+http://localhost:8080/#/knowledge?search=229
+http://localhost:8080/#/knowledge?search=232</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>1</v>
+          <t>http://localhost:8080/#/knowledge?ids=225,229,232,233</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge?search=17</t>
+          <t>從用戶問題 #18 創建，問題被問 2 次
+【遗留数据】预期分类: 帳務查詢</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge?ids=17</t>
+          <t>2025-10-25T20:04:28.591707</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>easy</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>從用戶問題 #3 創建，問題被問 2 次</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>2025-10-18T11:19:55.432402</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>{"relevance": 5, "completeness": 4, "accuracy": 5, "intent_match": 5, "overall": 4, "reasoning": "答案直接回答了退租的流程，涵蓋了提前通知、房屋檢查和押金退還等重要步驟，符合預期意圖。但可以增加一些具體的注意事項或文件要求，以提升完整性。"}</t>
-        </is>
+          <t>{"relevance": 4, "completeness": 4, "accuracy": 4, "intent_match": 4, "overall": 4, "reasoning": "答案提供了停車位租金計算的流程，涵蓋了租金是否包含在總租金中的相關資訊，但未直接明確回答問題中關於租金計算的具體方式，導致相關性和完整性略有不足。整體上，答案是有用的，但可以更具體化。"}</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>4</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4</v>
       </c>
       <c r="Y6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
         <v>4</v>
       </c>
-      <c r="AA6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>答案直接回答了退租的流程，涵蓋了提前通知、房屋檢查和押金退還等重要步驟，符合預期意圖。但可以增加一些具體的注意事項或文件要求，以提升完整性。</t>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>答案提供了停車位租金計算的流程，涵蓋了租金是否包含在總租金中的相關資訊，但未直接明確回答問題中關於租金計算的具體方式，導致相關性和完整性略有不足。整體上，答案是有用的，但可以更具體化。</t>
         </is>
       </c>
     </row>
@@ -1224,120 +1144,108 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>我可以養寵物嗎</t>
+          <t>退租要怎麼辦理？</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>合約規定</t>
+          <t>退租流程</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>寵物飼養</t>
+          <t>['退租流程']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['寵物飼養']</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>很抱歉，關於「寵物飼養」我目前沒有相關資訊。建議您撥打客服專線 02-2345-6789 獲取協助。</t>
-        </is>
+          <t>通常需支付甲山林包租代管股份有限公司要求的兩個月租金作為押金，租約結束後，我們會根據房屋狀況迅速退還押金。公司將確保您在租賃期間的權益，讓您安心居住。</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>[231] 押金：</t>
+        </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{"category_match": false, "matched_intents": [], "keyword_coverage": 0, "confidence": 0.9}</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>意圖分類不匹配: 預期「合約規定」但識別為「寵物飼養」
-   所有意圖: ['寵物飼養']
-💡 建議: 在意圖管理中編輯「寵物飼養」意圖，添加更多相關關鍵字</t>
-        </is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>無來源</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
-        <v>0</v>
+          <t>http://localhost:8080/#/knowledge?search=231</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?ids=231</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>無</t>
+          <t>從用戶問題 #3 創建，問題被問 2 次
+【遗留数据】预期分类: 退租流程</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge</t>
+          <t>2025-10-25T20:04:35.360192</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>easy</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>從用戶問題 #20 創建，問題被問 2 次</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>2025-10-18T11:20:01.182931</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>{"relevance": 3, "completeness": 2, "accuracy": 3, "intent_match": 2, "overall": 2, "reasoning": "答案未能直接回答是否可以養寵物，且缺乏對合約規定的具體資訊，僅提供了聯絡客服的建議，未能滿足使用者的需求。"}</t>
-        </is>
+          <t>{"relevance": 4, "completeness": 3, "accuracy": 4, "intent_match": 4, "overall": 4, "reasoning": "答案直接回答了退租的辦理流程，但缺乏具體的步驟或詳細資訊，例如如何通知房東或公司、是否需要填寫任何文件等。此外，對於押金的描述雖然準確，但未提及可能的扣款情況，這可能影響租客的理解。整體而言，答案符合問題意圖，但在完整性上稍微不足。"}</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>4</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4</v>
       </c>
       <c r="Y7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>答案未能直接回答是否可以養寵物，且缺乏對合約規定的具體資訊，僅提供了聯絡客服的建議，未能滿足使用者的需求。</t>
+        <v>4</v>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>答案直接回答了退租的辦理流程，但缺乏具體的步驟或詳細資訊，例如如何通知房東或公司、是否需要填寫任何文件等。此外，對於押金的描述雖然準確，但未提及可能的扣款情況，這可能影響租客的理解。整體而言，答案符合問題意圖，但在完整性上稍微不足。</t>
         </is>
       </c>
     </row>
@@ -1346,11 +1254,11 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>可以養寵物嗎</t>
+          <t>我可以養寵物嗎</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1360,81 +1268,80 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>寵物飼養</t>
+          <t>['寵物飼養']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['寵物飼養']</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
           <t>很抱歉，關於「寵物飼養」我目前沒有相關資訊。建議您撥打客服專線 02-2345-6789 獲取協助。</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>0.9</v>
+      </c>
       <c r="H8" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="K8" t="b">
+        <v>0.4</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>無來源</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
         <v>0</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>{"category_match": true, "matched_intents": ["寵物飼養"], "keyword_coverage": 0, "confidence": 0.9}</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>無來源</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="n">
-        <v>0</v>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>無</t>
+          <t>從用戶問題 #20 創建，問題被問 2 次
+【遗留数据】预期分类: 合約規定</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge</t>
+          <t>2025-10-25T20:04:42.322638</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>從用戶問題 #26 創建，問題被問 3 次</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>2025-10-18T11:20:08.017161</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>{"relevance": 2, "completeness": 2, "accuracy": 3, "intent_match": 2, "overall": 2, "reasoning": "答案並未直接回答是否可以養寵物，且缺乏具體資訊，僅提供了客服聯絡方式，未能滿足使用者的需求。雖然提供了客服電話，但這並不符合使用者的預期意圖，整體評分偏低。"}</t>
-        </is>
+          <t>{"relevance": 2, "completeness": 1, "accuracy": 3, "intent_match": 2, "overall": 2, "reasoning": "答案未直接回答是否可以養寵物，並且建議撥打客服專線的做法不符合問題的需求。雖然提供了聯絡方式，但未能有效解決提問者的疑問，導致相關性和完整性評分較低。準確性方面，客服資訊可能是正確的，但不符合問題的核心意圖，因此意圖理解也得分不高。"}</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3</v>
       </c>
       <c r="Y8" t="n">
         <v>2</v>
@@ -1442,18 +1349,9 @@
       <c r="Z8" t="n">
         <v>2</v>
       </c>
-      <c r="AA8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>答案並未直接回答是否可以養寵物，且缺乏具體資訊，僅提供了客服聯絡方式，未能滿足使用者的需求。雖然提供了客服電話，但這並不符合使用者的預期意圖，整體評分偏低。</t>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>答案未直接回答是否可以養寵物，並且建議撥打客服專線的做法不符合問題的需求。雖然提供了聯絡方式，但未能有效解決提問者的疑問，導致相關性和完整性評分較低。準確性方面，客服資訊可能是正確的，但不符合問題的核心意圖，因此意圖理解也得分不高。</t>
         </is>
       </c>
     </row>
@@ -1462,128 +1360,224 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>可以養寵物嗎</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>寵物飼養</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['寵物飼養']</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>很抱歉，關於「寵物飼養」我目前沒有相關資訊。建議您撥打客服專線 02-2345-6789 獲取協助。</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>無來源</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>從用戶問題 #26 創建，問題被問 3 次
+【遗留数据】预期分类: 寵物飼養</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2025-10-25T20:04:49.011348</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>{"relevance": 2, "completeness": 1, "accuracy": 3, "intent_match": 2, "overall": 2, "reasoning": "答案未能直接回答是否可以養寵物，且缺乏相關資訊，建議撥打客服專線並不符合問題的需求。雖然提供了客服聯絡方式，但未能解決提問者的疑問，整體表現較差。"}</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>答案未能直接回答是否可以養寵物，且缺乏相關資訊，建議撥打客服專線並不符合問題的需求。雖然提供了客服聯絡方式，但未能解決提問者的疑問，整體表現較差。</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
         <v>81</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>如何使用系統報修功能？</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>設備報修</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>設備使用</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>['設備使用']</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>要使用系統報修功能，請按照以下步驟操作：
-1. **登錄平台**：首先，請您登錄到我們的維護請求平台。
-2. **提交維護請求**：
-   - 填寫房屋問題的描述，清楚地說明您遇到的問題。
-   - 選擇該問題的優先級，以便我們能夠更有效地處理。
-3. **系統分配維修人員**：提交請求後，系統會自動將您的維護請求分配給相應的維修人員。
-4. **通知預計維修時間**：您會透過系統收到預計的維修</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['設備報修']</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>## 空調報修流程：
+1. **自行檢查**：
+   - 使用平台上的故障診斷工具進行自行檢查。
+   - 檢查電源插座和控制面板是否正常運作。
+2. **聯絡我們**：
+   - 若無法解決問題，請立即通知我們。
+   - 我們將立即安排專業維修人員前往處理。
+3. **專業維修**：
+   - 專業維修人員將前往您的位置進行維修。
+   - 確保維修人員能夠順利進入您的租賃單位進行作業。</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>0.9</v>
       </c>
-      <c r="I9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>{"category_match": true, "matched_intents": ["設備使用"], "keyword_coverage": 0, "confidence": 0.9}</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>✅ 測試通過，但仍有優化空間:
-✅ 多意圖匹配: 預期「設備報修」在次要意圖中找到
-   主要意圖: 設備使用，所有意圖: ['設備使用']</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>[30] 維護請求流程：; [31] 水管漏水：; [32] 空調故障：</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>30,31,32</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>http://localhost:8080/#/knowledge?search=30
-http://localhost:8080/#/knowledge?search=31
-http://localhost:8080/#/knowledge?search=32</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>http://localhost:8080/#/knowledge?ids=30,31,32</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>[246] 空調故障：; [247] 空調無法啟動：</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>246,247</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?search=246
+http://localhost:8080/#/knowledge?search=247</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?ids=246,247</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>2025-10-18T11:20:20.195617</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>{"relevance": 5, "completeness": 5, "accuracy": 5, "intent_match": 5, "overall": 5, "reasoning": "答案清楚地回答了如何使用系統報修功能，涵蓋了所有必要步驟，且內容準確可靠，完全符合設備報修的預期意圖。"}</t>
-        </is>
-      </c>
-      <c r="Y9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>答案清楚地回答了如何使用系統報修功能，涵蓋了所有必要步驟，且內容準確可靠，完全符合設備報修的預期意圖。</t>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>【遗留数据】预期分类: 設備報修
+【遗留数据】预期分类: 設備報修</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>2025-10-25T20:05:01.534282</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>{"relevance": 5, "completeness": 4, "accuracy": 5, "intent_match": 5, "overall": 4, "reasoning": "答案直接針對如何使用系統報修功能進行了詳細說明，涵蓋了報修的各個步驟，且內容準確可靠。然而，答案可以更具體地提及如何進入系統報修功能的具體步驟，例如使用的具體平台或應用程序，這樣會使得完整性更高。"}</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4</v>
+      </c>
+      <c r="X10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>答案直接針對如何使用系統報修功能進行了詳細說明，涵蓋了報修的各個步驟，且內容準確可靠。然而，答案可以更具體地提及如何進入系統報修功能的具體步驟，例如使用的具體平台或應用程序，這樣會使得完整性更高。</t>
         </is>
       </c>
     </row>

--- a/output/backtest/backtest_results.xlsx
+++ b/output/backtest/backtest_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -594,11 +594,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>您好，了解到您的WiFi無法使用。為了解決這個問題，我們將提供以下操作步驟：
-1. 請確認路由器的電源線是否插在插座上，並確保插座運作正常。
-2. 檢查路由器的電源指示燈，確認路由器是否有正常供電。
-3. 如果以上步驟檢查後問題仍未解決，請聯繫我們，我們將安排專業人員前往處理，以確保您能夠盡快恢復WiFi連線服務。
-我們會盡快為您處理，讓您能夠順利使用WiFi，請您放心。如果還有其他問題，歡迎</t>
+          <t>如果您遇到沒有WiFi的問題，請先確認路由器的電源插座和設備是否正常。如果檢查後仍然無法解決問題，請您直接向我們反映，我們將立即安排專業人員前往處理。您只需提供相關資訊，我們會全程協助您解決WiFi的使用困難。</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -608,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -650,38 +646,38 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>用戶真實問題（Vendor 1），系統無法提供答案
+          <t>用戶真實問題（Vendor 2），系統無法提供答案
 【遗留数据】预期分类: 設備報修</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2025-10-25T20:03:46.476958</t>
+          <t>2025-10-25T13:30:19.441292</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>{"relevance": 5, "completeness": 5, "accuracy": 5, "intent_match": 5, "overall": 5, "reasoning": "答案直接針對用戶的WiFi問題提供了具體的檢查步驟，並且在問題未解決的情況下提供了聯繫專業人員的建議，充分理解了用戶的需求。所有提供的資訊都是準確且實用的，滿足了問題的所有要求。"}</t>
+          <t>{"relevance": 4, "completeness": 4, "accuracy": 5, "intent_match": 4, "overall": 4, "reasoning": "答案針對沒有WiFi的問題提供了具體的檢查建議和後續行動，但未直接提供解決方案或替代方案，因此在相關性和意圖理解上略有不足。整體上，答案準確且完整，能夠有效協助用戶。"}</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
         <v>5</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>答案直接針對用戶的WiFi問題提供了具體的檢查步驟，並且在問題未解決的情況下提供了聯繫專業人員的建議，充分理解了用戶的需求。所有提供的資訊都是準確且實用的，滿足了問題的所有要求。</t>
+          <t>答案針對沒有WiFi的問題提供了具體的檢查建議和後續行動，但未直接提供解決方案或替代方案，因此在相關性和意圖理解上略有不足。整體上，答案準確且完整，能夠有效協助用戶。</t>
         </is>
       </c>
     </row>
@@ -690,26 +686,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鄰居常常打擾我</t>
+          <t>鄰居很吵我該怎麼辦</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>房東進入房間的權利</t>
+          <t>unclear</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['房東進入房間的權利']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>若鄰居常常打擾您，我們建議您首先嘗試直接與鄰居溝通，禮貌地表達您的困擾，我們會協助您處理並尋求解決問題的方式。如果無法解決，您可以向房東或租屋管理單位反映情況，讓我們處理並協助處理。根據租賃契約或社區規範，可能有相關規定可支持您維護居住權益。若情況持續惡化或對您造成嚴重困擾，我們建議考慮向當地房屋管理機構或法律單位尋求協助。</t>
+          <t>如果您的鄰居很吵，我們建議您可以按照以下步驟處理：
+1. 首先，嘗試直接與鄰居溝通，禮貌地表達您的困擾，看是否能解決問題。
+2. 若無法解決，您可以向房東或租屋管理單位反映情況，讓我們協助您處理並尋求解決方式。
+3. 根據租賃契約或社區規範，可能有相關規定支持您維護居住權益。
+4. 若情況持續惡化或對您造成嚴重困擾，建議考慮向當地房屋管理機構或法律單位尋求協助。
+我們會</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -766,12 +767,12 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2025-10-25T20:03:55.905354</t>
+          <t>2025-10-25T13:30:23.683607</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>{"relevance": 5, "completeness": 5, "accuracy": 5, "intent_match": 5, "overall": 5, "reasoning": "答案直接針對鄰居打擾的問題提供了具體的解決建議，涵蓋了溝通、報告和法律途徑等多種方式，且內容準確可靠，完全符合問題的意圖。"}</t>
+          <t>{"relevance": 5, "completeness": 5, "accuracy": 5, "intent_match": 5, "overall": 5, "reasoning": "答案直接針對鄰居吵鬧的問題提供了具體的解決步驟，涵蓋了溝通、尋求協助及法律途徑等多方面的建議，且內容準確且符合問題的意圖，整體表現優秀。"}</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -791,7 +792,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>答案直接針對鄰居打擾的問題提供了具體的解決建議，涵蓋了溝通、報告和法律途徑等多種方式，且內容準確可靠，完全符合問題的意圖。</t>
+          <t>答案直接針對鄰居吵鬧的問題提供了具體的解決步驟，涵蓋了溝通、尋求協助及法律途徑等多方面的建議，且內容準確且符合問題的意圖，整體表現優秀。</t>
         </is>
       </c>
     </row>
@@ -800,27 +801,35 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>如何重设密码？</t>
+          <t>押金怎麼退？</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>帳號問題</t>
+          <t>帳務查詢</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['帳號問題']</t>
+          <t>['帳務查詢']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>您可以透過點選忘記密碼的選項來重設密碼，並使用提供的信箱和新密碼登入系統。
-📚 此資訊來自知識庫：如何重設帳號密碼？甲山林包租代管股份有限公司會立即為您處理。</t>
+          <t>## 押金退款流程：
+1. **確認租約結束**：
+   - 確保您的租約已到期並已完成所有退租程序。
+2. **申請退款**：
+   - 與我們聯繫，填寫押金退款申請表格，提供相關資料，如房屋檢查報告等。
+3. **房屋檢查**：
+   - 我們將安排專業團隊進行房屋檢查，確保房屋狀態良好並無損壞。
+4. **押金核退**：
+   - 在確認無損壞後，我們將核退您的押金。
+5. **退</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -830,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -843,52 +852,55 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[223] 如何重設帳號密碼？</t>
+          <t>[230] 租金支付：; [234] 租金支付方式; [236] 收據或發票如何提供</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>230,234,236,237,240</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge?search=223</t>
+          <t>http://localhost:8080/#/knowledge?search=230
+http://localhost:8080/#/knowledge?search=234
+http://localhost:8080/#/knowledge?search=236</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge?ids=223</t>
+          <t>http://localhost:8080/#/knowledge?ids=230,234,236,237,240</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>更新为高优先级</t>
+          <t>用戶真實問題（Vendor 1），系統無法提供答案
+【遗留数据】预期分类: 退租查詢</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2025-10-25T20:04:04.586652</t>
+          <t>2025-10-25T13:30:27.509030</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>{"relevance": 5, "completeness": 4, "accuracy": 5, "intent_match": 5, "overall": 4, "reasoning": "答案直接回答了如何重设密码的問題，提供了具體的步驟（點選忘記密碼的選項）。然而，答案中提到的'提供的信箱和新密碼登入系統'可能會讓人感到困惑，因為重設密碼的過程通常不涉及直接登入，而是需要通過電子郵件確認。因此，完整性略有不足。準確性和意圖理解方面都表現良好。"}</t>
+          <t>{"relevance": 5, "completeness": 5, "accuracy": 5, "intent_match": 5, "overall": 5, "reasoning": "答案清晰且詳細地解釋了押金退款的流程，涵蓋了所有必要步驟，並且準確地理解了問題的意圖。提供的資訊完整且易於理解，符合用戶的需求。"}</t>
         </is>
       </c>
       <c r="V4" t="n">
         <v>5</v>
       </c>
       <c r="W4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
         <v>5</v>
@@ -897,11 +909,11 @@
         <v>5</v>
       </c>
       <c r="Z4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>答案直接回答了如何重设密码的問題，提供了具體的步驟（點選忘記密碼的選項）。然而，答案中提到的'提供的信箱和新密碼登入系統'可能會讓人感到困惑，因為重設密碼的過程通常不涉及直接登入，而是需要通過電子郵件確認。因此，完整性略有不足。準確性和意圖理解方面都表現良好。</t>
+          <t>答案清晰且詳細地解釋了押金退款的流程，涵蓋了所有必要步驟，並且準確地理解了問題的意圖。提供的資訊完整且易於理解，符合用戶的需求。</t>
         </is>
       </c>
     </row>
@@ -910,26 +922,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>新合約的資料申報提醒</t>
+          <t>冷氣壞了怎麼辦？</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>合約規定</t>
+          <t>設備報修</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['合約規定']</t>
+          <t>['設備報修']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>當您有新合約的資料需要申報時，我們公司將立即安排您進行租約簽署，同時支付首期租金及押金。我們會根據您的需求提供彈性的租賃方案，讓您更方便地選擇合適的租期。若有任何疑問或需要協助，請隨時與我們聯絡，我們將竭誠為您服務。</t>
+          <t>## 冷氣壞了怎麼辦？
+1. **自行檢查**：
+   - 使用平台提供的故障診斷工具，檢查冷氣是否有明顯故障。
+   - 檢查電源插座、控制面板是否正常運作。
+2. **專業處理**：
+   - 若無法自行解決問題，請立即通知我們。
+   - 我們將立即安排專業維修人員前往處理。
+   - 維修人員將對冷氣進行檢修和維護，確保其正常運作。
+我們公司負責處理冷氣故障，您只需通知我們，我們會立</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -952,190 +972,179 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
+          <t>[246] 空調故障：; [247] 空調無法啟動：</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>246,247</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?search=246
+http://localhost:8080/#/knowledge?search=247</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?ids=246,247</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>用戶真實問題（Vendor 1），系統無法提供答案
+【遗留数据】预期分类: 設備報修</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2025-10-25T13:30:32.033162</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>{"relevance": 5, "completeness": 4, "accuracy": 5, "intent_match": 5, "overall": 4, "reasoning": "答案直接針對冷氣壞了的問題提供了清晰的步驟，包括自行檢查和專業處理，符合問題意圖。雖然涵蓋了基本的檢查步驟，但可以增加一些常見故障的具體例子來提高完整性。"}</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>答案直接針對冷氣壞了的問題提供了清晰的步驟，包括自行檢查和專業處理，符合問題意圖。雖然涵蓋了基本的檢查步驟，但可以增加一些常見故障的具體例子來提高完整性。</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>98</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>什麼是租賃契約？</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>合約規定</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['合約規定']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>租賃契約是您與我們公司簽訂的合約，其中規定了租賃物件的使用條件、租金支付方式、租期等相關事項。我們會根據您的需求提供彈性的租賃方案，讓您更便利地選擇適合的租期。如果需要提前終止租約，我們會根據合約規定處理，並要求支付剩餘租期的部分租金作為賠償。希望這解釋清楚了租賃契約的內容。如果您有任何疑問或需要協助，歡迎隨時與我們聯繫。</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
           <t>[225] 批准與簽約：; [229] 租期：; [232] 提前終止：</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>225,229,232,233</t>
         </is>
       </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>http://localhost:8080/#/knowledge?search=225
 http://localhost:8080/#/knowledge?search=229
 http://localhost:8080/#/knowledge?search=232</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>http://localhost:8080/#/knowledge?ids=225,229,232,233</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>從用戶問題 #19 創建，問題被問 4 次
-【遗留数据】预期分类: 合約規定</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>2025-10-25T20:04:14.000961</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>{"relevance": 4, "completeness": 3, "accuracy": 4, "intent_match": 4, "overall": 4, "reasoning": "答案與問題相關，提到新合約的資料申報和租約簽署，但未明確說明資料申報的具體步驟或要求，導致完整性稍有欠缺。內容準確且理解了問題的意圖，但可以更具體地回應資料申報的具體細節。"}</t>
-        </is>
-      </c>
-      <c r="V5" t="n">
-        <v>4</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3</v>
-      </c>
-      <c r="X5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>答案與問題相關，提到新合約的資料申報和租約簽署，但未明確說明資料申報的具體步驟或要求，導致完整性稍有欠缺。內容準確且理解了問題的意圖，但可以更具體地回應資料申報的具體細節。</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>13</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>請問停車位的租金怎麼算？有包含在租金裡面嗎？</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>合約規定</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>['合約規定']</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>## 停車位租金計算流程：
-1. **選擇停車位**：
-   - 選定欲租用的停車位。
-2. **簽署租約**：
-   - 簽署租約，支付首期租金及押金。
-   - 我們將安排相關手續，確保流程順利進行。
-3. **確定租期**：
-   - 標準租期通常為12個月，但可協商月租。
-   - 公司提供彈性租賃方案，以符合您的需求。
-4. **停車位租金計算**：
-   - 停車位租金可能包含</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>{"confidence": 0.9}</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>[225] 批准與簽約：; [229] 租期：; [232] 提前終止：</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>225,229,232,233</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>4</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>http://localhost:8080/#/knowledge?search=225
-http://localhost:8080/#/knowledge?search=229
-http://localhost:8080/#/knowledge?search=232</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>http://localhost:8080/#/knowledge?ids=225,229,232,233</t>
-        </is>
-      </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>從用戶問題 #18 創建，問題被問 2 次
-【遗留数据】预期分类: 帳務查詢</t>
+          <t>用戶問題意圖不明確（Vendor 1），系統無法識別並提供答案
+【遗留数据】预期分类: unclear</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2025-10-25T20:04:28.591707</t>
+          <t>2025-10-25T13:30:36.779535</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>{"relevance": 4, "completeness": 4, "accuracy": 4, "intent_match": 4, "overall": 4, "reasoning": "答案提供了停車位租金計算的流程，涵蓋了租金是否包含在總租金中的相關資訊，但未直接明確回答問題中關於租金計算的具體方式，導致相關性和完整性略有不足。整體上，答案是有用的，但可以更具體化。"}</t>
+          <t>{"relevance": 5, "completeness": 4, "accuracy": 5, "intent_match": 5, "overall": 4, "reasoning": "答案直接回答了租賃契約的定義及其主要內容，並且理解了提問者的意圖。然而，答案中提到的提前終止租約的處理方式雖然是相關的，但可能會讓人感覺有些偏離主題，因此在完整性上稍微扣分。整體上，答案清晰且準確。"}</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W6" t="n">
         <v>4</v>
       </c>
       <c r="X6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z6" t="n">
         <v>4</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>答案提供了停車位租金計算的流程，涵蓋了租金是否包含在總租金中的相關資訊，但未直接明確回答問題中關於租金計算的具體方式，導致相關性和完整性略有不足。整體上，答案是有用的，但可以更具體化。</t>
+          <t>答案直接回答了租賃契約的定義及其主要內容，並且理解了提問者的意圖。然而，答案中提到的提前終止租約的處理方式雖然是相關的，但可能會讓人感覺有些偏離主題，因此在完整性上稍微扣分。整體上，答案清晰且準確。</t>
         </is>
       </c>
     </row>
@@ -1144,26 +1153,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>退租要怎麼辦理？</t>
+          <t>空調無法啟動：</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>退租流程</t>
+          <t>設備報修</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['退租流程']</t>
+          <t>['設備報修']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>通常需支付甲山林包租代管股份有限公司要求的兩個月租金作為押金，租約結束後，我們會根據房屋狀況迅速退還押金。公司將確保您在租賃期間的權益，讓您安心居住。</t>
+          <t>您好，對於空調無法啟動的問題，我們建議您可以先自行檢查一下以下幾個地方：
+1. 確認電源插座是否正常插入，並確保有電源供應。
+2. 檢查空調控制面板的設定是否正確。
+如果您檢查後仍無法解決問題，請您放心，我們會立即安排專業維修人員前往處理，讓您的空調能夠正常運作。如果需要協助或有其他疑問，請隨時與我們聯繫，我們將竭誠為您服務。</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1186,66 +1198,67 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[231] 押金：</t>
+          <t>[246] 空調故障：; [247] 空調無法啟動：</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>246,247</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge?search=231</t>
+          <t>http://localhost:8080/#/knowledge?search=246
+http://localhost:8080/#/knowledge?search=247</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge?ids=231</t>
+          <t>http://localhost:8080/#/knowledge?ids=246,247</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>從用戶問題 #3 創建，問題被問 2 次
-【遗留数据】预期分类: 退租流程</t>
+          <t>用戶真實問題（Vendor 1），系統無法提供答案
+【遗留数据】预期分类: 設備報修</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2025-10-25T20:04:35.360192</t>
+          <t>2025-10-25T13:30:48.974786</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>{"relevance": 4, "completeness": 3, "accuracy": 4, "intent_match": 4, "overall": 4, "reasoning": "答案直接回答了退租的辦理流程，但缺乏具體的步驟或詳細資訊，例如如何通知房東或公司、是否需要填寫任何文件等。此外，對於押金的描述雖然準確，但未提及可能的扣款情況，這可能影響租客的理解。整體而言，答案符合問題意圖，但在完整性上稍微不足。"}</t>
+          <t>{"relevance": 5, "completeness": 4, "accuracy": 5, "intent_match": 5, "overall": 4, "reasoning": "答案直接針對空調無法啟動的問題提供了具體的檢查建議，顯示出良好的相關性和意圖理解。雖然提供的檢查步驟相對簡單，但可以進一步增加更多的故障排除建議以提高完整性。內容準確可靠，符合常見的故障排查流程。"}</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z7" t="n">
         <v>4</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>答案直接回答了退租的辦理流程，但缺乏具體的步驟或詳細資訊，例如如何通知房東或公司、是否需要填寫任何文件等。此外，對於押金的描述雖然準確，但未提及可能的扣款情況，這可能影響租客的理解。整體而言，答案符合問題意圖，但在完整性上稍微不足。</t>
+          <t>答案直接針對空調無法啟動的問題提供了具體的檢查建議，顯示出良好的相關性和意圖理解。雖然提供的檢查步驟相對簡單，但可以進一步增加更多的故障排除建議以提高完整性。內容準確可靠，符合常見的故障排查流程。</t>
         </is>
       </c>
     </row>
@@ -1254,26 +1267,26 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>我可以養寵物嗎</t>
+          <t>空調無法啟動</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>寵物飼養</t>
+          <t>設備報修</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['寵物飼養']</t>
+          <t>['設備報修']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>很抱歉，關於「寵物飼養」我目前沒有相關資訊。建議您撥打客服專線 02-2345-6789 獲取協助。</t>
+          <t>如果您的空調無法啟動，我們建議您先檢查電源插座和控制面板是否正常。如果這些檢查後問題仍未解決，請您不用擔心，我們將立即安排專業維修人員前往處理。您只需提供詳細情況，我們會全力協助解決空調的故障。</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1283,10 +1296,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1296,62 +1309,67 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>無來源</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
+          <t>[246] 空調故障：; [247] 空調無法啟動：</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>246,247</t>
+        </is>
+      </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>無</t>
+          <t>http://localhost:8080/#/knowledge?search=246
+http://localhost:8080/#/knowledge?search=247</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>http://localhost:8080/#/knowledge</t>
+          <t>http://localhost:8080/#/knowledge?ids=246,247</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>從用戶問題 #20 創建，問題被問 2 次
-【遗留数据】预期分类: 合約規定</t>
+          <t>用戶真實問題（Vendor 1），系統無法提供答案
+【遗留数据】预期分类: 設備報修</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2025-10-25T20:04:42.322638</t>
+          <t>2025-10-25T13:30:54.146144</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>{"relevance": 2, "completeness": 1, "accuracy": 3, "intent_match": 2, "overall": 2, "reasoning": "答案未直接回答是否可以養寵物，並且建議撥打客服專線的做法不符合問題的需求。雖然提供了聯絡方式，但未能有效解決提問者的疑問，導致相關性和完整性評分較低。準確性方面，客服資訊可能是正確的，但不符合問題的核心意圖，因此意圖理解也得分不高。"}</t>
+          <t>{"relevance": 5, "completeness": 4, "accuracy": 5, "intent_match": 5, "overall": 4, "reasoning": "答案直接回應了空調無法啟動的問題，提供了檢查電源和控制面板的建議，並表示會安排專業維修人員，顯示出對問題的理解。不過，答案可以更具體地提到可能的故障原因或其他檢查步驟，因此在完整性上稍有欠缺。"}</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>答案未直接回答是否可以養寵物，並且建議撥打客服專線的做法不符合問題的需求。雖然提供了聯絡方式，但未能有效解決提問者的疑問，導致相關性和完整性評分較低。準確性方面，客服資訊可能是正確的，但不符合問題的核心意圖，因此意圖理解也得分不高。</t>
+          <t>答案直接回應了空調無法啟動的問題，提供了檢查電源和控制面板的建議，並表示會安排專業維修人員，顯示出對問題的理解。不過，答案可以更具體地提到可能的故障原因或其他檢查步驟，因此在完整性上稍有欠缺。</t>
         </is>
       </c>
     </row>
@@ -1360,11 +1378,11 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>可以養寵物嗎</t>
+          <t>我想養寵物可以嗎？</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1426,25 +1444,25 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>從用戶問題 #26 創建，問題被問 3 次
+          <t>用戶真實問題（Vendor 1），系統無法提供答案
 【遗留数据】预期分类: 寵物飼養</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2025-10-25T20:04:49.011348</t>
+          <t>2025-10-25T13:31:01.702871</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>{"relevance": 2, "completeness": 1, "accuracy": 3, "intent_match": 2, "overall": 2, "reasoning": "答案未能直接回答是否可以養寵物，且缺乏相關資訊，建議撥打客服專線並不符合問題的需求。雖然提供了客服聯絡方式，但未能解決提問者的疑問，整體表現較差。"}</t>
+          <t>{"relevance": 2, "completeness": 2, "accuracy": 3, "intent_match": 2, "overall": 2, "reasoning": "答案未能直接回答是否可以養寵物的問題，且建議撥打客服專線的做法並不符合問題的需求。雖然提供了聯繫方式，但並未解決提問者的疑問，因此在相關性、完整性和意圖理解上均表現不佳。準確性方面，客服專線的資訊可能是正確的，但並不適合此情境。"}</t>
         </is>
       </c>
       <c r="V9" t="n">
         <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
         <v>3</v>
@@ -1457,7 +1475,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>答案未能直接回答是否可以養寵物，且缺乏相關資訊，建議撥打客服專線並不符合問題的需求。雖然提供了客服聯絡方式，但未能解決提問者的疑問，整體表現較差。</t>
+          <t>答案未能直接回答是否可以養寵物的問題，且建議撥打客服專線的做法並不符合問題的需求。雖然提供了聯繫方式，但並未解決提問者的疑問，因此在相關性、完整性和意圖理解上均表現不佳。準確性方面，客服專線的資訊可能是正確的，但並不適合此情境。</t>
         </is>
       </c>
     </row>
@@ -1466,118 +1484,1571 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
+        <v>134</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>客服電話是什麼？</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>服務說明</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['服務說明']</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>我們公司的客服電話是提供給已成為我們租戶的客戶使用的，若您正在申請租賃或有任何疑問，我們建議您透過線上提交租賃申請表的方式與我們聯繫。在您提交申請後，我們將立即處理並協助您順利完成租賃程序。</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>[222] 申請步驟：; [223] 文件要求：; [224] 申請審核：</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>222,223,224,225,226</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>5</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?search=222
+http://localhost:8080/#/knowledge?search=223
+http://localhost:8080/#/knowledge?search=224</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?ids=222,223,224,225,226</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>用戶問題意圖不明確（Vendor 1），系統無法識別並提供答案
+【遗留数据】预期分类: unclear</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>2025-10-25T13:31:06.126099</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>{"relevance": 2, "completeness": 2, "accuracy": 3, "intent_match": 2, "overall": 2, "reasoning": "答案未直接提供客服電話，僅提到租戶的聯繫方式，未完全回答問題。雖然提及了申請租賃的流程，但未能清楚解釋客服電話的具體資訊，導致相關性和完整性較低。準確性方面，雖然提供的資訊是正確的，但未能直接回應問題意圖。"}</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>答案未直接提供客服電話，僅提到租戶的聯繫方式，未完全回答問題。雖然提及了申請租賃的流程，但未能清楚解釋客服電話的具體資訊，導致相關性和完整性較低。準確性方面，雖然提供的資訊是正確的，但未能直接回應問題意圖。</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>124</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>我的租金明細是什麼？</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>帳務查詢</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['帳務查詢']</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>您好！關於租金明細，您可以登入我們的系統查看本月租金金額及繳款帳號。我們提供銀行轉帳、超商繳費或現金支付方式，讓您方便快速完成繳費。支付後，我們會自動生成收據或電子發票，並通過郵件發送給您，讓您輕鬆查閱。希望這些資訊能幫助到您！如果您需要進一步協助，請隨時告訴我們。</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>[230] 租金支付：; [234] 租金支付方式; [236] 收據或發票如何提供</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>230,234,236,237,240</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>5</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?search=230
+http://localhost:8080/#/knowledge?search=234
+http://localhost:8080/#/knowledge?search=236</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?ids=230,234,236,237,240</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>從用戶問題 #77 創建，問題被問 2 次
+【遗留数据】预期分类: data_query</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>2025-10-25T13:31:10.616925</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>{"relevance": 4, "completeness": 4, "accuracy": 5, "intent_match": 4, "overall": 4, "reasoning": "答案提供了有關租金明細的查看方式及支付選項，雖然沒有直接列出具體的租金金額或明細，但提供了相關的資訊和指引，符合問題的意圖。整體上，答案清晰且準確，但可以更直接地回答租金明細的具體內容。"}</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>4</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>答案提供了有關租金明細的查看方式及支付選項，雖然沒有直接列出具體的租金金額或明細，但提供了相關的資訊和指引，符合問題的意圖。整體上，答案清晰且準確，但可以更直接地回答租金明細的具體內容。</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>125</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>幫我查詢我的繳費記錄</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>帳務查詢</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['帳務查詢']</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>您可以登入我們的系統查詢您的繳費記錄。在系統中，您可以查看本月的租金金額以及繳款帳號。付款方式包括銀行轉帳、超商繳費、信用卡支付或現金支付，讓您可以依照自己的需求選擇適合的方式進行支付。支付完成後，我們會立即為您生成收據或電子發票，並通過郵件寄送給您，同時您也可以登入系統查閱相關資訊。我們會確保您收到完整的支付證明，讓您的繳費記錄清晰可查。</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>[230] 租金支付：; [234] 租金支付方式; [236] 收據或發票如何提供</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>230,234,236,237,240</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>5</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?search=230
+http://localhost:8080/#/knowledge?search=234
+http://localhost:8080/#/knowledge?search=236</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?ids=230,234,236,237,240</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>從用戶問題 #78 創建，問題被問 2 次
+【遗留数据】预期分类: data_query</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>2025-10-25T13:31:14.287128</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>{"relevance": 5, "completeness": 4, "accuracy": 5, "intent_match": 5, "overall": 4, "reasoning": "答案直接回應了查詢繳費記錄的問題，並提供了登入系統的具體指導。然而，答案中沒有提及如何登入系統或提供具體的步驟，這使得完整性略顯不足。其他維度表現良好，內容準確且理解了問題的意圖。"}</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>4</v>
+      </c>
+      <c r="X12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>答案直接回應了查詢繳費記錄的問題，並提供了登入系統的具體指導。然而，答案中沒有提及如何登入系統或提供具體的步驟，這使得完整性略顯不足。其他維度表現良好，內容準確且理解了問題的意圖。</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>126</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>我的合約什麼時候到期？</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>租約查詢</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>['租約查詢']</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>租賃合同可以在我們的平台上進行電子簽署。我們會自動追蹤租約的到期日期，提前通知您是否需要續租或終止合同。我們負責管理整個流程，讓您無需擔心合同事宜。</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>[243] 租賃合同管理：</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?search=243</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?ids=243</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>從用戶問題 #79 創建，問題被問 2 次
+【遗留数据】预期分类: data_query</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>2025-10-25T13:31:17.276109</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>{"relevance": 3, "completeness": 2, "accuracy": 4, "intent_match": 3, "overall": 3, "reasoning": "答案提到租約的管理和到期通知，但並未直接回答合約的具體到期時間，導致相關性和完整性較低。準確性較高，因為提到的管理流程是合理的，但未能完全符合問題的意圖。"}</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>3</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>答案提到租約的管理和到期通知，但並未直接回答合約的具體到期時間，導致相關性和完整性較低。準確性較高，因為提到的管理流程是合理的，但未能完全符合問題的意圖。</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>127</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>停車位怎麼收費？</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>帳務查詢</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>['帳務查詢']</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>## 停車位租金支付流程：
+1. **查看租金金額及繳款帳號**：
+   - 登入甲山林包租代管股份有限公司系統，查詢當月租金金額及繳款帳號。
+2. **支付方式**：
+   - 我們提供銀行轉帳和超商繳費的方式進行支付。請在每月的1日至5日之間支付當月租金。
+3. **收據或發票提供**：
+   - 支付後，我們會自動生成收據或電子發票，通過郵件寄送給您，也可登入管理系統查閱。我們確保您收</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>[230] 租金支付：; [234] 租金支付方式; [236] 收據或發票如何提供</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>230,234,236,237,240</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>5</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?search=230
+http://localhost:8080/#/knowledge?search=234
+http://localhost:8080/#/knowledge?search=236</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?ids=230,234,236,237,240</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>從用戶問題 #80 創建，問題被問 2 次
+【遗留数据】预期分类: knowledge</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2025-10-25T13:31:22.451528</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>{"relevance": 4, "completeness": 4, "accuracy": 5, "intent_match": 4, "overall": 4, "reasoning": "答案提供了停車位租金的支付流程，雖然沒有直接提到具體的收費標準或金額，但涵蓋了支付方式和注意事項，對於問題有較高的相關性和完整性。準確性方面，內容清晰且可靠。意圖理解上，答案大致符合問題需求，但可更直接地提及收費的具體金額或標準。"}</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>4</v>
+      </c>
+      <c r="W14" t="n">
+        <v>4</v>
+      </c>
+      <c r="X14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>答案提供了停車位租金的支付流程，雖然沒有直接提到具體的收費標準或金額，但涵蓋了支付方式和注意事項，對於問題有較高的相關性和完整性。準確性方面，內容清晰且可靠。意圖理解上，答案大致符合問題需求，但可更直接地提及收費的具體金額或標準。</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>158</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>借址營登費用及服務內容</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>帳務查詢</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>['帳務查詢']</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>借址營登的費用支付方式包括銀行轉帳、超商繳費或現金支付。您可以登入我們的系統查看本月租金金額及繳款帳號，並在每月1日前完成支付。支付後，我們會自動生成收據或電子發票寄送給您，同時也可以在管理系統中查閱相關文件。如果您有任何疑問或需要協助，隨時歡迎聯絡我們，我們會確保您收到正確的文件並提供支援服務。</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>[230] 租金支付：; [234] 租金支付方式; [236] 收據或發票如何提供</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>230,234,236,237,240</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>5</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?search=230
+http://localhost:8080/#/knowledge?search=234
+http://localhost:8080/#/knowledge?search=236</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?ids=230,234,236,237,240</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>【遗留数据】预期分类: 借址營登
+【遗留数据】预期分类: 借址營登</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>2025-10-25T13:31:25.339261</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>{"relevance": 5, "completeness": 4, "accuracy": 5, "intent_match": 5, "overall": 4, "reasoning": "答案直接回答了借址營登的費用支付方式，並提供了相關的服務內容，顯示出對問題的良好理解。然而，對於服務內容的具體細節描述較少，未能完全涵蓋問題的所有可能面向，因此在完整性上稍有不足。"}</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
+        <v>5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4</v>
+      </c>
+      <c r="X15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>答案直接回答了借址營登的費用支付方式，並提供了相關的服務內容，顯示出對問題的良好理解。然而，對於服務內容的具體細節描述較少，未能完全涵蓋問題的所有可能面向，因此在完整性上稍有不足。</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>159</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>包租代管公司合約補充事項</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>合約規定</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>['合約規定']</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>合約補充事項中，若需要提前終止租約，我們會要求支付剩餘租期的部分租金作為賠償。公司將依照合約規定處理此事宜。如果您有任何疑問或需要進一步協商，歡迎隨時與我們聯絡，我們會提供您需要的協助及解決方案。</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>[225] 批准與簽約：; [229] 租期：; [232] 提前終止：</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>225,229,232,233</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>4</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?search=225
+http://localhost:8080/#/knowledge?search=229
+http://localhost:8080/#/knowledge?search=232</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?ids=225,229,232,233</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>【遗留数据】预期分类: 合約補充事項
+【遗留数据】预期分类: 合約補充事項</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2025-10-25T13:31:31.936860</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>{"relevance": 4, "completeness": 3, "accuracy": 4, "intent_match": 4, "overall": 4, "reasoning": "答案直接回應了合約補充事項中有關提前終止租約的部分，顯示出相關性和意圖理解。然而，答案未能全面涵蓋所有可能的合約補充事項，僅針對一個特定情況進行說明，因此完整性稍有不足。內容準確且可靠，符合一般合約的處理方式。"}</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
+        <v>4</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3</v>
+      </c>
+      <c r="X16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>答案直接回應了合約補充事項中有關提前終止租約的部分，顯示出相關性和意圖理解。然而，答案未能全面涵蓋所有可能的合約補充事項，僅針對一個特定情況進行說明，因此完整性稍有不足。內容準確且可靠，符合一般合約的處理方式。</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>18</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>我可以養寵物嗎</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>寵物飼養</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>['寵物飼養']</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>很抱歉，關於「寵物飼養」我目前沒有相關資訊。建議您撥打客服專線 02-2345-6789 獲取協助。</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>無來源</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>從用戶問題 #20 創建，問題被問 2 次
+【遗留数据】预期分类: 合約規定</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>2025-10-25T13:31:38.806701</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>{"relevance": 2, "completeness": 1, "accuracy": 3, "intent_match": 2, "overall": 2, "reasoning": "答案未直接回答是否可以養寵物，且建議撥打客服專線的做法未能解決問題。雖然客服資訊可能是正確的，但整體上未能滿足問題的需求，導致相關性和完整性評分較低。"}</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
+        <v>2</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>答案未直接回答是否可以養寵物，且建議撥打客服專線的做法未能解決問題。雖然客服資訊可能是正確的，但整體上未能滿足問題的需求，導致相關性和完整性評分較低。</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>可以養寵物嗎</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>寵物飼養</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>['寵物飼養']</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>很抱歉，關於「寵物飼養」我目前沒有相關資訊。建議您撥打客服專線 02-2345-6789 獲取協助。</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>無來源</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>從用戶問題 #26 創建，問題被問 3 次
+【遗留数据】预期分类: 寵物飼養</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>2025-10-25T13:31:45.596119</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>{"relevance": 2, "completeness": 1, "accuracy": 3, "intent_match": 2, "overall": 2, "reasoning": "答案未直接回答是否可以養寵物，且缺乏具體資訊，僅提供客服聯絡方式，無法滿足使用者的需求。雖然客服資訊是正確的，但整體回應未能有效解決問題。"}</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>答案未直接回答是否可以養寵物，且缺乏具體資訊，僅提供客服聯絡方式，無法滿足使用者的需求。雖然客服資訊是正確的，但整體回應未能有效解決問題。</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>87</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鄰居常常打擾我</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>房東進入房間的權利</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>['房東進入房間的權利']</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>若鄰居常常打擾您，我們建議您首先嘗試直接與鄰居溝通，禮貌地表達您的困擾，並尋求解決問題的方式。如果無法解決，您可以向我們甲山林包租代管股份有限公司反映情況，我們將立即介入協助處理。根據租賃契約或社區規範，可能有相關規定可支持您維護居住權益。若情況持續惡化或對您造成嚴重困擾，我們建議考慮向當地房屋管理機構或法律單位尋求協助。</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>[504] 鄰居常常打擾我</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?search=504</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?ids=504</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>用戶問題意圖不明確（Vendor 2），系統無法識別並提供答案
+【遗留数据】预期分类: unclear</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>2025-10-25T13:31:49.300592</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>{"relevance": 5, "completeness": 5, "accuracy": 5, "intent_match": 5, "overall": 5, "reasoning": "答案直接針對鄰居打擾的問題提供了具體的解決建議，涵蓋了溝通、反映問題及尋求法律協助等多個方面，且內容準確且符合問題的意圖。"}</t>
+        </is>
+      </c>
+      <c r="V19" t="n">
+        <v>5</v>
+      </c>
+      <c r="W19" t="n">
+        <v>5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>答案直接針對鄰居打擾的問題提供了具體的解決建議，涵蓋了溝通、反映問題及尋求法律協助等多個方面，且內容準確且符合問題的意圖。</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新合約的資料申報提醒</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>合約規定</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>['合約規定']</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>當您有新合約的資料需要申報時，我們會立即安排您進行租約簽署程序，同時支付首期租金及押金。如果有任何疑問或需要協助，請隨時與我們聯繫，我們將全程協助您完成相關手續。期待與您共同開展新的合作計畫！</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>[225] 批准與簽約：; [229] 租期：; [232] 提前終止：</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>225,229,232,233</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>4</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?search=225
+http://localhost:8080/#/knowledge?search=229
+http://localhost:8080/#/knowledge?search=232</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?ids=225,229,232,233</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>從用戶問題 #19 創建，問題被問 4 次
+【遗留数据】预期分类: 合約規定</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>2025-10-25T13:31:53.320149</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>{"relevance": 4, "completeness": 3, "accuracy": 5, "intent_match": 4, "overall": 4, "reasoning": "答案與問題有一定的相關性，提到了新合約的資料申報及後續流程，但未明確說明資料申報的具體提醒或步驟，導致完整性稍有欠缺。內容準確且符合問題意圖，整體表現良好。"}</t>
+        </is>
+      </c>
+      <c r="V20" t="n">
+        <v>4</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3</v>
+      </c>
+      <c r="X20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>答案與問題有一定的相關性，提到了新合約的資料申報及後續流程，但未明確說明資料申報的具體提醒或步驟，導致完整性稍有欠缺。內容準確且符合問題意圖，整體表現良好。</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>請問停車位的租金怎麼算？有包含在租金裡面嗎？</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>合約規定</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>['合約規定']</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>## 停車位租金計算流程：
+1. **批准與簽約：**
+   - 經過審核後，我們會立即安排租客進行租約簽署。
+   - 租客需支付首期租金及押金。
+2. **租期選擇：**
+   - 標準租約一般為12個月，但我們可以根據您的需求協商月租。
+   - 公司提供彈性的租賃方案，讓您更便利地選擇合適的租期。
+3. **停車位租金計算：**
+   - 停車位的租金通常不包含在租金中，需另外支付。</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>[225] 批准與簽約：; [229] 租期：; [232] 提前終止：</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>225,229,232,233</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>4</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?search=225
+http://localhost:8080/#/knowledge?search=229
+http://localhost:8080/#/knowledge?search=232</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?ids=225,229,232,233</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>從用戶問題 #18 創建，問題被問 2 次
+【遗留数据】预期分类: 帳務查詢</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2025-10-25T13:31:57.412048</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>{"relevance": 4, "completeness": 3, "accuracy": 4, "intent_match": 4, "overall": 4, "reasoning": "答案在某種程度上回答了問題，特別是關於停車位租金的計算和是否包含在租金中，但未提供具體的租金計算方式或範例，導致完整性稍顯不足。整體上，答案的相關性和準確性較高，能夠理解問題意圖，但仍有改進空間。"}</t>
+        </is>
+      </c>
+      <c r="V21" t="n">
+        <v>4</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3</v>
+      </c>
+      <c r="X21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>答案在某種程度上回答了問題，特別是關於停車位租金的計算和是否包含在租金中，但未提供具體的租金計算方式或範例，導致完整性稍顯不足。整體上，答案的相關性和準確性較高，能夠理解問題意圖，但仍有改進空間。</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>14</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>退租要怎麼辦理？</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>退租流程</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>['退租流程']</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>通常需支付甲山林包租代管股份有限公司要求的兩個月租金作為押金，租約結束後，我們會根據房屋狀況迅速退還押金。</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>{"confidence": 0.9}</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>[231] 押金：</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?search=231</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>http://localhost:8080/#/knowledge?ids=231</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>從用戶問題 #3 創建，問題被問 2 次
+【遗留数据】预期分类: 退租流程</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>2025-10-25T13:32:05.014728</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>{"relevance": 5, "completeness": 3, "accuracy": 4, "intent_match": 5, "overall": 4, "reasoning": "答案直接回答了退租的基本流程，但未提及具體的辦理步驟或其他可能的注意事項，導致完整性稍顯不足。內容準確，符合一般租賃的慣例，但可能因公司政策而有所不同。整體上，答案理解了問題意圖並提供了相關信息。"}</t>
+        </is>
+      </c>
+      <c r="V22" t="n">
+        <v>5</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3</v>
+      </c>
+      <c r="X22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>答案直接回答了退租的基本流程，但未提及具體的辦理步驟或其他可能的注意事項，導致完整性稍顯不足。內容準確，符合一般租賃的慣例，但可能因公司政策而有所不同。整體上，答案理解了問題意圖並提供了相關信息。</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
         <v>81</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>如何使用系統報修功能？</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>設備報修</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>['設備報修']</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>## 空調報修流程：
 1. **自行檢查**：
-   - 使用平台上的故障診斷工具進行自行檢查。
-   - 檢查電源插座和控制面板是否正常運作。
+   - 使用平台提供的故障診斷工具自行檢查空調問題。
+   - 檢查電源插座、控制面板是否正常。
 2. **聯絡我們**：
-   - 若無法解決問題，請立即通知我們。
+   - 若無法解決問題，立即聯絡我們。
    - 我們將立即安排專業維修人員前往處理。
 3. **專業維修**：
-   - 專業維修人員將前往您的位置進行維修。
-   - 確保維修人員能夠順利進入您的租賃單位進行作業。</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+   - 專業維修人員將到達您的位置進行維修。
+   - 在維修完成後，空調應該能正常運作。
+這是我們</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>0.9</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>{"confidence": 0.9}</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
         <is>
           <t>[246] 空調故障：; [247] 空調無法啟動：</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>246,247</t>
         </is>
       </c>
-      <c r="O10" t="n">
+      <c r="O23" t="n">
         <v>2</v>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>http://localhost:8080/#/knowledge?search=246
 http://localhost:8080/#/knowledge?search=247</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>http://localhost:8080/#/knowledge?ids=246,247</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>【遗留数据】预期分类: 設備報修
 【遗留数据】预期分类: 設備報修</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>2025-10-25T20:05:01.534282</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>{"relevance": 5, "completeness": 4, "accuracy": 5, "intent_match": 5, "overall": 4, "reasoning": "答案直接針對如何使用系統報修功能進行了詳細說明，涵蓋了報修的各個步驟，且內容準確可靠。然而，答案可以更具體地提及如何進入系統報修功能的具體步驟，例如使用的具體平台或應用程序，這樣會使得完整性更高。"}</t>
-        </is>
-      </c>
-      <c r="V10" t="n">
-        <v>5</v>
-      </c>
-      <c r="W10" t="n">
-        <v>4</v>
-      </c>
-      <c r="X10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>答案直接針對如何使用系統報修功能進行了詳細說明，涵蓋了報修的各個步驟，且內容準確可靠。然而，答案可以更具體地提及如何進入系統報修功能的具體步驟，例如使用的具體平台或應用程序，這樣會使得完整性更高。</t>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2025-10-25T13:32:08.953096</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>{"relevance": 5, "completeness": 5, "accuracy": 5, "intent_match": 5, "overall": 5, "reasoning": "答案清楚地描述了系統報修的具體流程，涵蓋了從自行檢查到聯絡專業維修的所有步驟，並且內容準確且符合問題的意圖。"}</t>
+        </is>
+      </c>
+      <c r="V23" t="n">
+        <v>5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>答案清楚地描述了系統報修的具體流程，涵蓋了從自行檢查到聯絡專業維修的所有步驟，並且內容準確且符合問題的意圖。</t>
         </is>
       </c>
     </row>
